--- a/Lab3_Files/Taxpayerdata.xlsx
+++ b/Lab3_Files/Taxpayerdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Taxpayer number</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Reported Income (thousands of dollars)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C11"/>
+  <dimension ref="A3:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,6 +556,11 @@
         <v>175</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
